--- a/data/장애인 일자리_공공기관.xlsx
+++ b/data/장애인 일자리_공공기관.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WithU-HJ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2781,7 +2781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2792,6 +2792,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2855,13 +2856,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
@@ -2894,7 +2888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2924,11 +2918,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2980,7 +2989,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2988,6 +2997,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3206,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E356" sqref="A287:E356"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323:E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8728,7 +8740,7 @@
         <v>129.01000730000001</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="16.5" customHeight="1">
+    <row r="322" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A322" s="1" t="s">
         <v>598</v>
       </c>
@@ -8745,7 +8757,7 @@
         <v>129.01049230000001</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="16.5" customHeight="1">
+    <row r="323" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A323" s="1" t="s">
         <v>598</v>
       </c>
@@ -8755,10 +8767,10 @@
       <c r="C323" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D323" s="13">
+      <c r="D323" s="20">
         <v>35.267702900000003</v>
       </c>
-      <c r="E323" s="13">
+      <c r="E323" s="20">
         <v>129.01928280000001</v>
       </c>
     </row>
